--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T06:42:38+00:00</t>
+    <t>2023-10-18T13:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T13:50:25+00:00</t>
+    <t>2023-11-10T20:52:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1004,7 +1004,7 @@
     <t>Bundle.entry:practitioner.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorAdministrativo}
 </t>
   </si>
   <si>
@@ -1793,7 +1793,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="102.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-10T20:52:19+00:00</t>
+    <t>2023-11-13T15:27:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$272</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8588" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9728" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T15:27:41+00:00</t>
+    <t>2023-11-14T13:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -977,31 +977,28 @@
     <t>Bundle.entry:servicerequest.response.outcome</t>
   </si>
   <si>
-    <t>Bundle.entry:practitioner</t>
-  </si>
-  <si>
-    <t>practitioner</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.link</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.fullUrl</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.resource</t>
+    <t>Bundle.entry:practitionerAdministrativo</t>
+  </si>
+  <si>
+    <t>practitionerAdministrativo</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.resource</t>
   </si>
   <si>
     <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorAdministrativo}
@@ -1020,85 +1017,191 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Bundle.entry:practitioner.search</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.mode</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.search.score</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.method</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.url</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifNoneMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifModifiedSince</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifMatch</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.request.ifNoneExist</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.id</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.extension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.status</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.location</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.etag</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.lastModified</t>
-  </si>
-  <si>
-    <t>Bundle.entry:practitioner.response.outcome</t>
+    <t>Bundle.entry:practitionerAdministrativo.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerAdministrativo.response.outcome</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional</t>
+  </si>
+  <si>
+    <t>practitionerProfesional</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
+</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:practitionerProfesional.response.outcome</t>
   </si>
   <si>
     <t>Bundle.entry:practitionerRole</t>
   </si>
   <si>
     <t>practitionerRole</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>Bundle.entry:practitionerRole.id</t>
@@ -1775,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN240"/>
+  <dimension ref="A1:AN272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1784,9 +1887,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.6640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.74609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="25.0859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -14409,10 +14512,10 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>37</v>
@@ -14510,7 +14613,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>142</v>
@@ -14622,7 +14725,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>143</v>
@@ -14736,7 +14839,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>144</v>
@@ -14852,7 +14955,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>145</v>
@@ -14964,7 +15067,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>148</v>
@@ -15078,7 +15181,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>152</v>
@@ -15104,13 +15207,13 @@
         <v>37</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -15176,10 +15279,10 @@
         <v>237</v>
       </c>
       <c r="AK118" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>37</v>
@@ -15190,7 +15293,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>156</v>
@@ -15302,7 +15405,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>160</v>
@@ -15414,7 +15517,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>161</v>
@@ -15528,7 +15631,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>162</v>
@@ -15644,7 +15747,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>163</v>
@@ -15758,7 +15861,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>169</v>
@@ -15872,7 +15975,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>174</v>
@@ -15984,7 +16087,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>178</v>
@@ -16096,7 +16199,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>179</v>
@@ -16210,7 +16313,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>180</v>
@@ -16326,7 +16429,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>181</v>
@@ -16438,7 +16541,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>186</v>
@@ -16552,7 +16655,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>190</v>
@@ -16664,7 +16767,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>193</v>
@@ -16776,7 +16879,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>195</v>
@@ -16888,7 +16991,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>198</v>
@@ -17000,7 +17103,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>201</v>
@@ -17112,7 +17215,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>205</v>
@@ -17224,7 +17327,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>206</v>
@@ -17338,7 +17441,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>207</v>
@@ -17454,7 +17557,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>208</v>
@@ -17566,7 +17669,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>211</v>
@@ -17678,7 +17781,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>214</v>
@@ -17792,7 +17895,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>218</v>
@@ -17906,7 +18009,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>222</v>
@@ -18020,23 +18123,23 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D144" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>37</v>
@@ -18134,7 +18237,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>142</v>
@@ -18246,7 +18349,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>143</v>
@@ -18360,7 +18463,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>144</v>
@@ -18476,7 +18579,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>145</v>
@@ -18588,7 +18691,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>148</v>
@@ -18702,7 +18805,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>152</v>
@@ -18728,13 +18831,13 @@
         <v>37</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -18800,10 +18903,10 @@
         <v>237</v>
       </c>
       <c r="AK150" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL150" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>37</v>
@@ -18814,7 +18917,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>156</v>
@@ -18926,7 +19029,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>160</v>
@@ -19038,7 +19141,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>161</v>
@@ -19152,7 +19255,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>162</v>
@@ -19268,7 +19371,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>163</v>
@@ -19382,7 +19485,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>169</v>
@@ -19496,7 +19599,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>174</v>
@@ -19608,7 +19711,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>178</v>
@@ -19720,7 +19823,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>179</v>
@@ -19834,7 +19937,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>180</v>
@@ -19950,7 +20053,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>181</v>
@@ -20062,7 +20165,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>186</v>
@@ -20176,7 +20279,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>190</v>
@@ -20288,7 +20391,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>193</v>
@@ -20400,7 +20503,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>195</v>
@@ -20512,7 +20615,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>198</v>
@@ -20624,7 +20727,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>201</v>
@@ -20736,7 +20839,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>205</v>
@@ -20848,7 +20951,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>206</v>
@@ -20962,7 +21065,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>207</v>
@@ -21078,7 +21181,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>208</v>
@@ -21190,7 +21293,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>211</v>
@@ -21302,7 +21405,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>214</v>
@@ -21416,7 +21519,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>218</v>
@@ -21530,7 +21633,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>222</v>
@@ -21644,23 +21747,23 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
-        <v>47</v>
+        <v>379</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>47</v>
+        <v>379</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>37</v>
@@ -21758,7 +21861,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>142</v>
@@ -21870,7 +21973,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>143</v>
@@ -21984,7 +22087,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>144</v>
@@ -22100,7 +22203,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>145</v>
@@ -22212,7 +22315,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>148</v>
@@ -22326,7 +22429,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>152</v>
@@ -22352,13 +22455,13 @@
         <v>37</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L182" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -22421,13 +22524,13 @@
         <v>37</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>391</v>
+        <v>237</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>37</v>
@@ -22438,7 +22541,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>156</v>
@@ -22550,7 +22653,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>160</v>
@@ -22662,7 +22765,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>161</v>
@@ -22776,7 +22879,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>162</v>
@@ -22892,7 +22995,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>163</v>
@@ -23006,7 +23109,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>169</v>
@@ -23120,7 +23223,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>174</v>
@@ -23232,7 +23335,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>178</v>
@@ -23344,7 +23447,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>179</v>
@@ -23458,7 +23561,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>180</v>
@@ -23574,7 +23677,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>181</v>
@@ -23686,7 +23789,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>186</v>
@@ -23800,7 +23903,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>190</v>
@@ -23912,7 +24015,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>193</v>
@@ -24024,7 +24127,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>195</v>
@@ -24136,7 +24239,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>198</v>
@@ -24248,7 +24351,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>201</v>
@@ -24360,7 +24463,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>205</v>
@@ -24472,7 +24575,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>206</v>
@@ -24586,7 +24689,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>207</v>
@@ -24702,7 +24805,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>208</v>
@@ -24814,7 +24917,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>211</v>
@@ -24926,7 +25029,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>214</v>
@@ -25040,7 +25143,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>218</v>
@@ -25154,7 +25257,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>222</v>
@@ -25268,13 +25371,13 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>37</v>
@@ -25382,7 +25485,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>142</v>
@@ -25494,7 +25597,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>143</v>
@@ -25608,7 +25711,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>144</v>
@@ -25724,7 +25827,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>145</v>
@@ -25836,7 +25939,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>148</v>
@@ -25950,7 +26053,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>152</v>
@@ -25976,13 +26079,13 @@
         <v>37</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -26045,13 +26148,13 @@
         <v>37</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>37</v>
+        <v>426</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AM214" t="s" s="2">
         <v>37</v>
@@ -26062,7 +26165,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>156</v>
@@ -26174,7 +26277,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>160</v>
@@ -26286,7 +26389,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>161</v>
@@ -26400,7 +26503,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>162</v>
@@ -26516,7 +26619,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>163</v>
@@ -26630,7 +26733,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>169</v>
@@ -26744,7 +26847,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>174</v>
@@ -26856,7 +26959,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>178</v>
@@ -26968,7 +27071,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>179</v>
@@ -27082,7 +27185,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>180</v>
@@ -27198,7 +27301,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>181</v>
@@ -27310,7 +27413,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>186</v>
@@ -27424,7 +27527,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>190</v>
@@ -27536,7 +27639,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>193</v>
@@ -27648,7 +27751,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>195</v>
@@ -27760,7 +27863,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>198</v>
@@ -27872,7 +27975,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>201</v>
@@ -27984,7 +28087,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>205</v>
@@ -28096,7 +28199,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>206</v>
@@ -28210,7 +28313,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>207</v>
@@ -28326,7 +28429,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>208</v>
@@ -28438,7 +28541,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>211</v>
@@ -28550,7 +28653,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>214</v>
@@ -28664,7 +28767,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>218</v>
@@ -28778,7 +28881,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>222</v>
@@ -28892,18 +28995,20 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C240" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D240" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E240" s="2"/>
       <c r="F240" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>47</v>
@@ -28918,20 +29023,16 @@
         <v>48</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>459</v>
+        <v>137</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>37</v>
       </c>
@@ -28979,35 +29080,3661 @@
         <v>37</v>
       </c>
       <c r="AF240" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM240" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN240" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" hidden="true">
+      <c r="A241" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C241" s="2"/>
+      <c r="D241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G241" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q241" s="2"/>
+      <c r="R241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL241" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN241" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" hidden="true">
+      <c r="A242" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C242" s="2"/>
+      <c r="D242" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E242" s="2"/>
+      <c r="F242" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G242" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N242" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O242" s="2"/>
+      <c r="P242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q242" s="2"/>
+      <c r="R242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL242" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM242" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN242" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="243" hidden="true">
+      <c r="A243" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AG240" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH240" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI240" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ240" t="s" s="2">
+      <c r="B243" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C243" s="2"/>
+      <c r="D243" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G243" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N243" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O243" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q243" s="2"/>
+      <c r="R243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL243" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM243" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN243" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="244" hidden="true">
+      <c r="A244" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C244" s="2"/>
+      <c r="D244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G244" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q244" s="2"/>
+      <c r="R244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AK240" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL240" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM240" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN240" t="s" s="2">
+      <c r="AK244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM244" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN244" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" hidden="true">
+      <c r="A245" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E245" s="2"/>
+      <c r="F245" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G245" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q245" s="2"/>
+      <c r="R245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF245" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG245" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH245" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ245" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM245" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN245" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" hidden="true">
+      <c r="A246" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E246" s="2"/>
+      <c r="F246" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G246" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N246" s="2"/>
+      <c r="O246" s="2"/>
+      <c r="P246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q246" s="2"/>
+      <c r="R246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF246" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AG246" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH246" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ246" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL246" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM246" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN246" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" hidden="true">
+      <c r="A247" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="F247" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G247" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J247" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K247" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N247" s="2"/>
+      <c r="O247" s="2"/>
+      <c r="P247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q247" s="2"/>
+      <c r="R247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF247" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG247" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH247" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI247" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AJ247" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM247" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN247" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" hidden="true">
+      <c r="A248" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E248" s="2"/>
+      <c r="F248" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G248" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K248" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+      <c r="P248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q248" s="2"/>
+      <c r="R248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF248" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG248" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH248" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL248" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM248" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN248" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" hidden="true">
+      <c r="A249" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G249" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K249" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O249" s="2"/>
+      <c r="P249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q249" s="2"/>
+      <c r="R249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF249" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG249" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH249" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ249" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL249" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM249" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN249" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" hidden="true">
+      <c r="A250" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="C250" s="2"/>
+      <c r="D250" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G250" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I250" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J250" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K250" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O250" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q250" s="2"/>
+      <c r="R250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF250" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG250" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH250" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ250" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL250" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM250" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN250" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" hidden="true">
+      <c r="A251" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G251" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J251" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K251" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L251" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N251" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O251" s="2"/>
+      <c r="P251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q251" s="2"/>
+      <c r="R251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X251" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y251" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Z251" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF251" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG251" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH251" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ251" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM251" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN251" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" hidden="true">
+      <c r="A252" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C252" s="2"/>
+      <c r="D252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E252" s="2"/>
+      <c r="F252" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G252" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J252" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K252" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L252" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M252" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N252" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O252" s="2"/>
+      <c r="P252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q252" s="2"/>
+      <c r="R252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF252" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG252" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH252" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ252" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM252" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN252" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" hidden="true">
+      <c r="A253" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C253" s="2"/>
+      <c r="D253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E253" s="2"/>
+      <c r="F253" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G253" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J253" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K253" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L253" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M253" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N253" s="2"/>
+      <c r="O253" s="2"/>
+      <c r="P253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q253" s="2"/>
+      <c r="R253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF253" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG253" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH253" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI253" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AJ253" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM253" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN253" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" hidden="true">
+      <c r="A254" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E254" s="2"/>
+      <c r="F254" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G254" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K254" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L254" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M254" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q254" s="2"/>
+      <c r="R254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF254" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG254" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH254" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL254" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM254" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN254" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" hidden="true">
+      <c r="A255" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C255" s="2"/>
+      <c r="D255" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E255" s="2"/>
+      <c r="F255" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G255" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K255" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L255" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N255" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O255" s="2"/>
+      <c r="P255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q255" s="2"/>
+      <c r="R255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF255" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG255" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH255" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ255" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL255" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM255" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN255" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" hidden="true">
+      <c r="A256" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C256" s="2"/>
+      <c r="D256" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E256" s="2"/>
+      <c r="F256" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G256" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I256" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J256" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K256" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L256" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M256" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N256" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O256" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q256" s="2"/>
+      <c r="R256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF256" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG256" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH256" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ256" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL256" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM256" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN256" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" hidden="true">
+      <c r="A257" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C257" s="2"/>
+      <c r="D257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E257" s="2"/>
+      <c r="F257" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G257" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J257" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K257" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L257" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M257" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
+      <c r="P257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q257" s="2"/>
+      <c r="R257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X257" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y257" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Z257" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AA257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF257" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AG257" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH257" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ257" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM257" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN257" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="258" hidden="true">
+      <c r="A258" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C258" s="2"/>
+      <c r="D258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E258" s="2"/>
+      <c r="F258" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G258" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J258" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K258" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L258" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M258" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N258" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O258" s="2"/>
+      <c r="P258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q258" s="2"/>
+      <c r="R258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF258" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG258" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH258" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ258" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM258" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN258" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259" hidden="true">
+      <c r="A259" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C259" s="2"/>
+      <c r="D259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E259" s="2"/>
+      <c r="F259" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G259" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J259" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K259" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L259" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M259" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N259" s="2"/>
+      <c r="O259" s="2"/>
+      <c r="P259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q259" s="2"/>
+      <c r="R259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF259" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AG259" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH259" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ259" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM259" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN259" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="260" hidden="true">
+      <c r="A260" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C260" s="2"/>
+      <c r="D260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E260" s="2"/>
+      <c r="F260" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G260" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J260" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K260" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L260" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M260" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N260" s="2"/>
+      <c r="O260" s="2"/>
+      <c r="P260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q260" s="2"/>
+      <c r="R260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF260" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AG260" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH260" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ260" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM260" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN260" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" hidden="true">
+      <c r="A261" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C261" s="2"/>
+      <c r="D261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E261" s="2"/>
+      <c r="F261" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G261" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J261" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K261" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L261" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M261" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="N261" s="2"/>
+      <c r="O261" s="2"/>
+      <c r="P261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q261" s="2"/>
+      <c r="R261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF261" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AG261" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH261" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ261" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM261" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN261" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" hidden="true">
+      <c r="A262" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E262" s="2"/>
+      <c r="F262" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G262" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J262" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K262" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L262" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M262" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N262" s="2"/>
+      <c r="O262" s="2"/>
+      <c r="P262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q262" s="2"/>
+      <c r="R262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF262" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG262" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH262" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ262" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM262" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN262" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" hidden="true">
+      <c r="A263" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E263" s="2"/>
+      <c r="F263" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G263" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J263" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K263" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L263" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M263" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="N263" s="2"/>
+      <c r="O263" s="2"/>
+      <c r="P263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q263" s="2"/>
+      <c r="R263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF263" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG263" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH263" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI263" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AJ263" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM263" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN263" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" hidden="true">
+      <c r="A264" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C264" s="2"/>
+      <c r="D264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E264" s="2"/>
+      <c r="F264" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G264" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K264" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L264" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M264" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N264" s="2"/>
+      <c r="O264" s="2"/>
+      <c r="P264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q264" s="2"/>
+      <c r="R264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF264" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG264" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH264" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL264" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM264" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN264" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="265" hidden="true">
+      <c r="A265" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C265" s="2"/>
+      <c r="D265" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="E265" s="2"/>
+      <c r="F265" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G265" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K265" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L265" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M265" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N265" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q265" s="2"/>
+      <c r="R265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF265" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG265" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH265" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ265" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL265" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM265" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN265" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" hidden="true">
+      <c r="A266" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="E266" s="2"/>
+      <c r="F266" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G266" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I266" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J266" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K266" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L266" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M266" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N266" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O266" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="P266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q266" s="2"/>
+      <c r="R266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF266" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG266" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH266" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ266" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL266" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM266" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN266" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" hidden="true">
+      <c r="A267" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C267" s="2"/>
+      <c r="D267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E267" s="2"/>
+      <c r="F267" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G267" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J267" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K267" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L267" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M267" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N267" s="2"/>
+      <c r="O267" s="2"/>
+      <c r="P267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q267" s="2"/>
+      <c r="R267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF267" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG267" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH267" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ267" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM267" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN267" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="268" hidden="true">
+      <c r="A268" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E268" s="2"/>
+      <c r="F268" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G268" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J268" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K268" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L268" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M268" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N268" s="2"/>
+      <c r="O268" s="2"/>
+      <c r="P268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q268" s="2"/>
+      <c r="R268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF268" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG268" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH268" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ268" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM268" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN268" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" hidden="true">
+      <c r="A269" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C269" s="2"/>
+      <c r="D269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E269" s="2"/>
+      <c r="F269" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G269" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J269" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K269" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L269" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M269" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N269" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O269" s="2"/>
+      <c r="P269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q269" s="2"/>
+      <c r="R269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF269" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG269" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH269" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ269" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM269" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN269" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" hidden="true">
+      <c r="A270" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C270" s="2"/>
+      <c r="D270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E270" s="2"/>
+      <c r="F270" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G270" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J270" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K270" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L270" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M270" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N270" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O270" s="2"/>
+      <c r="P270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q270" s="2"/>
+      <c r="R270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF270" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG270" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH270" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ270" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM270" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN270" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" hidden="true">
+      <c r="A271" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E271" s="2"/>
+      <c r="F271" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G271" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J271" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K271" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L271" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M271" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N271" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O271" s="2"/>
+      <c r="P271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q271" s="2"/>
+      <c r="R271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF271" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG271" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH271" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM271" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN271" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="272" hidden="true">
+      <c r="A272" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C272" s="2"/>
+      <c r="D272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E272" s="2"/>
+      <c r="F272" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G272" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J272" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K272" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L272" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M272" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="N272" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="O272" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="P272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q272" s="2"/>
+      <c r="R272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF272" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG272" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH272" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ272" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM272" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN272" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN240">
+  <autoFilter ref="A1:AN272">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -29017,7 +32744,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI239">
+  <conditionalFormatting sqref="A2:AI271">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-14T13:53:30+00:00</t>
+    <t>2023-11-15T13:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T13:05:48+00:00</t>
+    <t>2023-11-21T15:26:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:26:12+00:00</t>
+    <t>2023-11-22T13:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T13:10:14+00:00</t>
+    <t>2023-11-22T15:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:48:04+00:00</t>
+    <t>2023-11-29T20:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1001,7 +1001,7 @@
     <t>Bundle.entry:practitionerAdministrativo.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorAdministrativo}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorAdministrativoLE}
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
     <t>Bundle.entry:practitionerProfesional.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MINSALPrestadorProfesional}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
 </t>
   </si>
   <si>
@@ -1896,7 +1896,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.5859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-29T20:30:49+00:00</t>
+    <t>2023-12-04T15:33:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:33:03+00:00</t>
+    <t>2023-12-21T20:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T15:10:48+00:00</t>
+    <t>2024-02-09T20:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T20:00:26+00:00</t>
+    <t>2024-02-21T16:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,7 +426,7 @@
 </t>
   </si>
   <si>
-    <t>Cuando el Bundle fue hecho</t>
+    <t>Cuando el Bundle fue armado</t>
   </si>
   <si>
     <t>The date/time that the bundle was assembled - i.e. when the resources were placed in the bundle.</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-21T16:19:48+00:00</t>
+    <t>2024-02-29T18:01:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1361,7 +1361,7 @@
 </t>
   </si>
   <si>
-    <t>Se indica que médico y que organización agenda la inteconsulta. code.coding.code=agendador, también se debe indicar el profesional que atendera la IC en otro PractitionerRoleL</t>
+    <t>Se indica el administrativo y organización que agenda la interconsulta</t>
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1130,7 +1130,7 @@
     <t>Bundle.entry:practitionerAdministrativo.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorAdministrativoLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerAdministrativoLE}
 </t>
   </si>
   <si>
@@ -1245,7 +1245,7 @@
     <t>Bundle.entry:practitionerProfesional.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE}
+    <t xml:space="preserve">Practitioner {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE}
 </t>
   </si>
   <si>
@@ -2038,7 +2038,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.5859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>87</v>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -8208,13 +8208,13 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
@@ -11832,13 +11832,13 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>77</v>
@@ -15456,13 +15456,13 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>77</v>
@@ -19080,13 +19080,13 @@
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>77</v>
@@ -22704,13 +22704,13 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>77</v>
@@ -26328,13 +26328,13 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>77</v>
@@ -29952,13 +29952,13 @@
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G247" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H247" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I247" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BundleAgendarLE.xlsx
+++ b/StructureDefinition-BundleAgendarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
